--- a/data/trans_orig/P2C_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6824D049-7664-4A50-9788-08D5A234D32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17948CFD-C7AD-4015-AF3C-B5DECBF3D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B606912-43D4-485F-8FF8-63A936F296C9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7BC09CE3-27E6-4984-B8E5-3799C316EF0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="309">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2007 (Tasa respuesta: 63,28%)</t>
   </si>
@@ -68,1039 +68,904 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2012 (Tasa respuesta: 66,65%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2016 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,99%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2012 (Tasa respuesta: 66,65%)</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2023 (Tasa respuesta: 19,74%)</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2016 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son remunerados en 2023 (Tasa respuesta: 19,74%)</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
   </si>
 </sst>
 </file>
@@ -1512,8 +1377,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A79FDB-C0A9-4CD0-95CB-21E52A251074}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D22027-2819-4236-A231-D21CDB078124}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1630,10 +1495,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1043</v>
+        <v>2061</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1645,85 +1510,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2331</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>1043</v>
+        <v>4392</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="D5" s="7">
-        <v>77364</v>
+        <v>421042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>86</v>
+        <v>488</v>
       </c>
       <c r="I5" s="7">
-        <v>76156</v>
+        <v>489703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7">
-        <v>157</v>
+        <v>904</v>
       </c>
       <c r="N5" s="7">
-        <v>153521</v>
+        <v>910745</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1732,153 +1597,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>72</v>
+        <v>418</v>
       </c>
       <c r="D6" s="7">
-        <v>78407</v>
+        <v>423103</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>86</v>
+        <v>490</v>
       </c>
       <c r="I6" s="7">
-        <v>76156</v>
+        <v>492034</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>158</v>
+        <v>908</v>
       </c>
       <c r="N6" s="7">
-        <v>154564</v>
+        <v>915137</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1018</v>
+        <v>4696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2331</v>
+        <v>7328</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>3349</v>
+        <v>12024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>345</v>
+        <v>550</v>
       </c>
       <c r="D8" s="7">
-        <v>343678</v>
+        <v>581813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>402</v>
+        <v>603</v>
       </c>
       <c r="I8" s="7">
-        <v>413547</v>
+        <v>642834</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>747</v>
+        <v>1153</v>
       </c>
       <c r="N8" s="7">
-        <v>757225</v>
+        <v>1224647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,153 +1752,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>346</v>
+        <v>553</v>
       </c>
       <c r="D9" s="7">
-        <v>344696</v>
+        <v>586509</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>404</v>
+        <v>609</v>
       </c>
       <c r="I9" s="7">
-        <v>415878</v>
+        <v>650162</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>750</v>
+        <v>1162</v>
       </c>
       <c r="N9" s="7">
-        <v>760574</v>
+        <v>1236671</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>4696</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
       <c r="I10" s="7">
-        <v>7328</v>
+        <v>3148</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>12024</v>
+        <v>3148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>550</v>
+        <v>384</v>
       </c>
       <c r="D11" s="7">
-        <v>581813</v>
+        <v>403381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>603</v>
+        <v>479</v>
       </c>
       <c r="I11" s="7">
-        <v>642834</v>
+        <v>472957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>1153</v>
+        <v>863</v>
       </c>
       <c r="N11" s="7">
-        <v>1224647</v>
+        <v>876338</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2042,153 +1907,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>553</v>
+        <v>384</v>
       </c>
       <c r="D12" s="7">
-        <v>586509</v>
+        <v>403381</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>609</v>
+        <v>482</v>
       </c>
       <c r="I12" s="7">
-        <v>650162</v>
+        <v>476105</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1162</v>
+        <v>866</v>
       </c>
       <c r="N12" s="7">
-        <v>1236671</v>
+        <v>879486</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>4299</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>3148</v>
+        <v>4918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>3148</v>
+        <v>9217</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>384</v>
+        <v>525</v>
       </c>
       <c r="D14" s="7">
-        <v>403381</v>
+        <v>492933</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>479</v>
+        <v>650</v>
       </c>
       <c r="I14" s="7">
-        <v>472957</v>
+        <v>678144</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>863</v>
+        <v>1175</v>
       </c>
       <c r="N14" s="7">
-        <v>876338</v>
+        <v>1171077</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,153 +2062,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>384</v>
+        <v>530</v>
       </c>
       <c r="D15" s="7">
-        <v>403381</v>
+        <v>497232</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>482</v>
+        <v>654</v>
       </c>
       <c r="I15" s="7">
-        <v>476105</v>
+        <v>683062</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>866</v>
+        <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>879486</v>
+        <v>1180294</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>4299</v>
+        <v>11056</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>4918</v>
+        <v>17725</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N16" s="7">
-        <v>9217</v>
+        <v>28781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>525</v>
+        <v>1875</v>
       </c>
       <c r="D17" s="7">
-        <v>492933</v>
+        <v>1899170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
-        <v>650</v>
+        <v>2220</v>
       </c>
       <c r="I17" s="7">
-        <v>678144</v>
+        <v>2283637</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
-        <v>1175</v>
+        <v>4095</v>
       </c>
       <c r="N17" s="7">
-        <v>1171077</v>
+        <v>4182807</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,217 +2217,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>530</v>
+        <v>1885</v>
       </c>
       <c r="D18" s="7">
-        <v>497232</v>
+        <v>1910226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>654</v>
+        <v>2235</v>
       </c>
       <c r="I18" s="7">
-        <v>683062</v>
+        <v>2301362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1184</v>
+        <v>4120</v>
       </c>
       <c r="N18" s="7">
-        <v>1180294</v>
+        <v>4211588</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11056</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="7">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
-        <v>17725</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="A19" t="s">
         <v>99</v>
       </c>
-      <c r="M19" s="7">
-        <v>25</v>
-      </c>
-      <c r="N19" s="7">
-        <v>28781</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1875</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1899170</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2220</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2283637</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4095</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4182807</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1885</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1910226</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2235</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2301362</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4120</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4211588</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2575,8 +2284,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D16739-5042-4AA9-9532-A75B0FE3CE7C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A06AE90-8136-4BD3-820D-09CE4F76AC10}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2592,7 +2301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2693,100 +2402,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2216</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1535</v>
+        <v>5674</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>1535</v>
+        <v>7890</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="D5" s="7">
-        <v>77399</v>
+        <v>470296</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>477</v>
       </c>
       <c r="I5" s="7">
-        <v>82566</v>
+        <v>508933</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="M5" s="7">
-        <v>152</v>
+        <v>921</v>
       </c>
       <c r="N5" s="7">
-        <v>159965</v>
+        <v>979229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,153 +2504,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>80</v>
+        <v>446</v>
       </c>
       <c r="D6" s="7">
-        <v>77399</v>
+        <v>472512</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>482</v>
       </c>
       <c r="I6" s="7">
-        <v>84101</v>
+        <v>514607</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>928</v>
       </c>
       <c r="N6" s="7">
-        <v>161500</v>
+        <v>987119</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>2216</v>
+        <v>3832</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>4139</v>
+        <v>4191</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>6355</v>
+        <v>8023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>364</v>
+        <v>601</v>
       </c>
       <c r="D8" s="7">
-        <v>392897</v>
+        <v>657707</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
-        <v>405</v>
+        <v>678</v>
       </c>
       <c r="I8" s="7">
-        <v>426368</v>
+        <v>742659</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="M8" s="7">
-        <v>769</v>
+        <v>1279</v>
       </c>
       <c r="N8" s="7">
-        <v>819265</v>
+        <v>1400366</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,54 +2659,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>366</v>
+        <v>605</v>
       </c>
       <c r="D9" s="7">
-        <v>395113</v>
+        <v>661539</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>409</v>
+        <v>681</v>
       </c>
       <c r="I9" s="7">
-        <v>430507</v>
+        <v>746850</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>775</v>
+        <v>1286</v>
       </c>
       <c r="N9" s="7">
-        <v>825620</v>
+        <v>1408389</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3006,97 +2715,97 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3832</v>
+        <v>4848</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>4191</v>
+        <v>6025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>8023</v>
+        <v>10873</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>601</v>
+        <v>415</v>
       </c>
       <c r="D11" s="7">
-        <v>657707</v>
+        <v>452381</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>678</v>
+        <v>482</v>
       </c>
       <c r="I11" s="7">
-        <v>742659</v>
+        <v>525696</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="M11" s="7">
-        <v>1279</v>
+        <v>897</v>
       </c>
       <c r="N11" s="7">
-        <v>1400366</v>
+        <v>978077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,153 +2814,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>605</v>
+        <v>419</v>
       </c>
       <c r="D12" s="7">
-        <v>661539</v>
+        <v>457229</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>681</v>
+        <v>487</v>
       </c>
       <c r="I12" s="7">
-        <v>746850</v>
+        <v>531721</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1286</v>
+        <v>906</v>
       </c>
       <c r="N12" s="7">
-        <v>1408389</v>
+        <v>988950</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>4848</v>
+        <v>5805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>6025</v>
+        <v>12729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>10873</v>
+        <v>18534</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>415</v>
+        <v>519</v>
       </c>
       <c r="D14" s="7">
-        <v>452381</v>
+        <v>540241</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="7">
+        <v>681</v>
+      </c>
+      <c r="I14" s="7">
+        <v>710923</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1200</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1251164</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="7">
-        <v>482</v>
-      </c>
-      <c r="I14" s="7">
-        <v>525696</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" s="7">
-        <v>897</v>
-      </c>
-      <c r="N14" s="7">
-        <v>978077</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,153 +2969,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>524</v>
       </c>
       <c r="D15" s="7">
-        <v>457229</v>
+        <v>546046</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>487</v>
+        <v>693</v>
       </c>
       <c r="I15" s="7">
-        <v>531721</v>
+        <v>723652</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>906</v>
+        <v>1217</v>
       </c>
       <c r="N15" s="7">
-        <v>988950</v>
+        <v>1269698</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>5805</v>
+        <v>16701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I16" s="7">
-        <v>12729</v>
+        <v>28619</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N16" s="7">
-        <v>18534</v>
+        <v>45320</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>519</v>
+        <v>1979</v>
       </c>
       <c r="D17" s="7">
-        <v>540241</v>
+        <v>2120625</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>681</v>
+        <v>2318</v>
       </c>
       <c r="I17" s="7">
-        <v>710923</v>
+        <v>2488211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>1200</v>
+        <v>4297</v>
       </c>
       <c r="N17" s="7">
-        <v>1251164</v>
+        <v>4608836</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,217 +3124,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>524</v>
+        <v>1994</v>
       </c>
       <c r="D18" s="7">
-        <v>546046</v>
+        <v>2137326</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>693</v>
+        <v>2343</v>
       </c>
       <c r="I18" s="7">
-        <v>723652</v>
+        <v>2516830</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1217</v>
+        <v>4337</v>
       </c>
       <c r="N18" s="7">
-        <v>1269698</v>
+        <v>4654156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7">
-        <v>16701</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="7">
-        <v>25</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28619</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M19" s="7">
-        <v>40</v>
-      </c>
-      <c r="N19" s="7">
-        <v>45320</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1979</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2120625</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2318</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2488211</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4297</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4608836</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1994</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2137326</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2343</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2516830</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4337</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4654156</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3638,8 +3191,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4D1853-5C54-4E6B-90FC-8D8ABFFB8E1C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9EA1C17-01F1-4BE1-880D-2EE143BD9118}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3655,7 +3208,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3756,100 +3309,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>1100</v>
+        <v>7085</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>968</v>
+        <v>1849</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>2068</v>
+        <v>8935</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="D5" s="7">
-        <v>58928</v>
+        <v>390876</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
-        <v>73</v>
+        <v>434</v>
       </c>
       <c r="I5" s="7">
-        <v>72411</v>
+        <v>444619</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>134</v>
+        <v>821</v>
       </c>
       <c r="N5" s="7">
-        <v>131339</v>
+        <v>835494</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,153 +3411,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>394</v>
       </c>
       <c r="D6" s="7">
-        <v>60028</v>
+        <v>397961</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>74</v>
+        <v>436</v>
       </c>
       <c r="I6" s="7">
-        <v>73379</v>
+        <v>446468</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>136</v>
+        <v>830</v>
       </c>
       <c r="N6" s="7">
-        <v>133407</v>
+        <v>844429</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>5986</v>
+        <v>2624</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>881</v>
+        <v>5444</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>6867</v>
+        <v>8068</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>326</v>
+        <v>549</v>
       </c>
       <c r="D8" s="7">
-        <v>331947</v>
+        <v>579709</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>361</v>
+        <v>665</v>
       </c>
       <c r="I8" s="7">
-        <v>372208</v>
+        <v>711570</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
-        <v>687</v>
+        <v>1214</v>
       </c>
       <c r="N8" s="7">
-        <v>704155</v>
+        <v>1291279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,54 +3566,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>551</v>
       </c>
       <c r="D9" s="7">
-        <v>337933</v>
+        <v>582333</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>670</v>
       </c>
       <c r="I9" s="7">
-        <v>373089</v>
+        <v>717014</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>694</v>
+        <v>1221</v>
       </c>
       <c r="N9" s="7">
-        <v>711022</v>
+        <v>1299347</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4069,97 +3622,97 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2624</v>
+        <v>2100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>5444</v>
+        <v>6526</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>8068</v>
+        <v>8626</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>549</v>
+        <v>387</v>
       </c>
       <c r="D11" s="7">
-        <v>579709</v>
+        <v>414057</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>665</v>
+        <v>470</v>
       </c>
       <c r="I11" s="7">
-        <v>711570</v>
+        <v>506788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
-        <v>1214</v>
+        <v>857</v>
       </c>
       <c r="N11" s="7">
-        <v>1291279</v>
+        <v>920845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,153 +3721,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>551</v>
+        <v>389</v>
       </c>
       <c r="D12" s="7">
-        <v>582333</v>
+        <v>416157</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>670</v>
+        <v>476</v>
       </c>
       <c r="I12" s="7">
-        <v>717014</v>
+        <v>513314</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>1221</v>
+        <v>865</v>
       </c>
       <c r="N12" s="7">
-        <v>1299347</v>
+        <v>929471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>2100</v>
+        <v>5809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>6526</v>
+        <v>8720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>8626</v>
+        <v>14528</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>387</v>
+        <v>502</v>
       </c>
       <c r="D14" s="7">
-        <v>414057</v>
+        <v>494668</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>470</v>
+        <v>591</v>
       </c>
       <c r="I14" s="7">
-        <v>506788</v>
+        <v>649504</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
-        <v>857</v>
+        <v>1093</v>
       </c>
       <c r="N14" s="7">
-        <v>920845</v>
+        <v>1144173</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,153 +3876,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>389</v>
+        <v>508</v>
       </c>
       <c r="D15" s="7">
-        <v>416157</v>
+        <v>500477</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>476</v>
+        <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>513314</v>
+        <v>658224</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>865</v>
+        <v>1107</v>
       </c>
       <c r="N15" s="7">
-        <v>929471</v>
+        <v>1158701</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D16" s="7">
-        <v>5809</v>
+        <v>17618</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I16" s="7">
-        <v>8720</v>
+        <v>22539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>14528</v>
+        <v>40157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>502</v>
+        <v>1825</v>
       </c>
       <c r="D17" s="7">
-        <v>494668</v>
+        <v>1879310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
-        <v>591</v>
+        <v>2160</v>
       </c>
       <c r="I17" s="7">
-        <v>649504</v>
+        <v>2312481</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
-        <v>1093</v>
+        <v>3985</v>
       </c>
       <c r="N17" s="7">
-        <v>1144173</v>
+        <v>4191791</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,217 +4031,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>508</v>
+        <v>1842</v>
       </c>
       <c r="D18" s="7">
-        <v>500477</v>
+        <v>1896928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>599</v>
+        <v>2181</v>
       </c>
       <c r="I18" s="7">
-        <v>658224</v>
+        <v>2335020</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>1107</v>
+        <v>4023</v>
       </c>
       <c r="N18" s="7">
-        <v>1158701</v>
+        <v>4231948</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>17</v>
-      </c>
-      <c r="D19" s="7">
-        <v>17618</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H19" s="7">
-        <v>21</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22539</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M19" s="7">
-        <v>38</v>
-      </c>
-      <c r="N19" s="7">
-        <v>40157</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1825</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1879310</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2160</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2312481</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3985</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4191791</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1842</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1896928</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2181</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2335020</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4023</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4231948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
+      <c r="A19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4701,8 +4098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BA68A7-B8B0-4531-A417-A87EC12F7ECE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000BDF02-7FC3-4972-8C48-8BDB3219BD68}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4718,7 +4115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4819,100 +4216,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>4535</v>
+        <v>26188</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="I4" s="7">
-        <v>7591</v>
+        <v>36452</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="N4" s="7">
-        <v>12127</v>
+        <v>62640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D5" s="7">
-        <v>6592</v>
+        <v>74041</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="7">
+        <v>171</v>
+      </c>
+      <c r="I5" s="7">
+        <v>99503</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="7">
         <v>255</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13595</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="M5" s="7">
-        <v>33</v>
-      </c>
       <c r="N5" s="7">
-        <v>20186</v>
+        <v>173544</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,153 +4318,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="D6" s="7">
-        <v>11127</v>
+        <v>100229</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="I6" s="7">
-        <v>21186</v>
+        <v>135955</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="N6" s="7">
-        <v>32313</v>
+        <v>236184</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>22765</v>
+        <v>23271</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7">
-        <v>31463</v>
+        <v>37569</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>54228</v>
+        <v>60840</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="D8" s="7">
-        <v>72534</v>
+        <v>138315</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>95789</v>
+        <v>207590</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
-        <v>222</v>
+        <v>480</v>
       </c>
       <c r="N8" s="7">
-        <v>168323</v>
+        <v>345905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,153 +4473,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="D9" s="7">
-        <v>95299</v>
+        <v>161586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>216</v>
+        <v>395</v>
       </c>
       <c r="I9" s="7">
-        <v>127252</v>
+        <v>245159</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>583</v>
       </c>
       <c r="N9" s="7">
-        <v>222551</v>
+        <v>406745</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>24498</v>
+        <v>15502</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>41233</v>
+        <v>14325</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>65731</v>
+        <v>29827</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7">
-        <v>153360</v>
+        <v>85806</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="I11" s="7">
-        <v>236120</v>
+        <v>318805</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
-        <v>480</v>
+        <v>255</v>
       </c>
       <c r="N11" s="7">
-        <v>389480</v>
+        <v>404611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,153 +4628,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7">
-        <v>177858</v>
+        <v>101308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>395</v>
+        <v>195</v>
       </c>
       <c r="I12" s="7">
-        <v>277353</v>
+        <v>333130</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>583</v>
+        <v>298</v>
       </c>
       <c r="N12" s="7">
-        <v>455211</v>
+        <v>434438</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>16355</v>
+        <v>16373</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>15789</v>
+        <v>31937</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="N13" s="7">
-        <v>32145</v>
+        <v>48310</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="D14" s="7">
-        <v>93110</v>
+        <v>109756</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="I14" s="7">
-        <v>238726</v>
+        <v>150653</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
-        <v>255</v>
+        <v>379</v>
       </c>
       <c r="N14" s="7">
-        <v>331835</v>
+        <v>260410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,153 +4783,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="D15" s="7">
-        <v>109465</v>
+        <v>126129</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="I15" s="7">
-        <v>254515</v>
+        <v>182590</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>298</v>
+        <v>459</v>
       </c>
       <c r="N15" s="7">
-        <v>363980</v>
+        <v>308720</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="D16" s="7">
-        <v>16635</v>
+        <v>81334</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="H16" s="7">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c r="I16" s="7">
-        <v>36985</v>
+        <v>120283</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="N16" s="7">
-        <v>53620</v>
+        <v>201617</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>132</v>
+        <v>460</v>
       </c>
       <c r="D17" s="7">
-        <v>118611</v>
+        <v>407919</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
-        <v>247</v>
+        <v>909</v>
       </c>
       <c r="I17" s="7">
-        <v>172103</v>
+        <v>776551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="M17" s="7">
-        <v>379</v>
+        <v>1369</v>
       </c>
       <c r="N17" s="7">
-        <v>290714</v>
+        <v>1184470</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,217 +4938,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>155</v>
+        <v>570</v>
       </c>
       <c r="D18" s="7">
-        <v>135246</v>
+        <v>489253</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>304</v>
+        <v>1156</v>
       </c>
       <c r="I18" s="7">
-        <v>209088</v>
+        <v>896834</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>459</v>
+        <v>1726</v>
       </c>
       <c r="N18" s="7">
-        <v>344334</v>
+        <v>1386087</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>110</v>
-      </c>
-      <c r="D19" s="7">
-        <v>84788</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H19" s="7">
-        <v>247</v>
-      </c>
-      <c r="I19" s="7">
-        <v>133063</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="M19" s="7">
-        <v>357</v>
-      </c>
-      <c r="N19" s="7">
-        <v>217851</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>460</v>
-      </c>
-      <c r="D20" s="7">
-        <v>444207</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="H20" s="7">
-        <v>909</v>
-      </c>
-      <c r="I20" s="7">
-        <v>756332</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1369</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1200539</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>570</v>
-      </c>
-      <c r="D21" s="7">
-        <v>528995</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1156</v>
-      </c>
-      <c r="I21" s="7">
-        <v>889395</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1726</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1418390</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
+      <c r="A19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
